--- a/Cosmin_Spataru/Lab3_Ex1si4.xlsx
+++ b/Cosmin_Spataru/Lab3_Ex1si4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmi\OneDrive\Desktop\SOAC_23-24\Cosmin_Spataru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DC6281-237E-48C6-9046-796A2573884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9578A51-6372-4CD3-88EC-39F4ED24C9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Sort</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Tree</t>
+  </si>
+  <si>
+    <t>FR = 16</t>
+  </si>
+  <si>
+    <t>rulate cu: Instruction buffer size: 32</t>
+  </si>
+  <si>
+    <t>Latency: 1</t>
+  </si>
+  <si>
+    <t>Main memory latency: 10</t>
+  </si>
+  <si>
+    <t>Instruction buffer size: 32</t>
+  </si>
+  <si>
+    <t>Issue rate max: 2</t>
   </si>
 </sst>
 </file>
@@ -142,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -158,6 +176,9 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4750,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F44"/>
+  <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4765,8 +4786,8 @@
     <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="2">
         <v>4</v>
@@ -4778,7 +4799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4792,7 +4813,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -4806,7 +4827,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4820,7 +4841,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -4834,7 +4855,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +4869,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4861,8 +4882,11 @@
       <c r="E9" s="4">
         <v>0.60799999999999998</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4875,8 +4899,11 @@
       <c r="E10" s="4">
         <v>0.45</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4889,9 +4916,17 @@
       <c r="E11" s="4">
         <v>0.46200000000000002</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="M12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:13" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <v>4</v>
@@ -5165,6 +5200,26 @@
       </c>
       <c r="F44" s="4">
         <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C49" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C50" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
